--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -3398,7 +3398,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3455,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3512,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,7 +3569,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3626,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3740,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3797,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,7 +3854,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3911,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3968,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4082,7 +4082,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4139,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4196,7 +4196,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4253,7 +4253,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4310,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4367,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4416,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +4785,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -11564,12 +11564,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11579,6 +11573,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18780,7 +18780,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -19647,7 +19647,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19783,7 +19783,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19869,7 +19869,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -19917,14 +19917,12 @@
         <v>143</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/10)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
-        <v>0.19703599999999999</v>
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -19935,7 +19933,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28">
-        <v>0.18</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -19943,7 +19941,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="28">
-        <f>C8</f>
+        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D7" s="28"/>
@@ -19967,7 +19965,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D8" s="28"/>
@@ -19985,7 +19983,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28">
-        <v>0.2</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -20020,8 +20018,8 @@
         <v>146</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
-        <v>0.80834605377276669</v>
+        <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
+        <v>0.79221422376409367</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -20047,8 +20045,8 @@
         <v>148</v>
       </c>
       <c r="C13" s="28">
-        <f>(2.5*(1/60)+4.3*(11/60)+6.7*(48/60))/100</f>
-        <v>6.1900000000000004E-2</v>
+        <f>U5_mortality/1000</f>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -20057,15 +20055,13 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28">
-        <v>5.8000000000000003E-2</v>
-      </c>
+      <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28">
-        <v>5.5E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -20073,8 +20069,8 @@
         <v>170</v>
       </c>
       <c r="C14" s="28">
-        <f>maternal_mortality/100</f>
-        <v>4.0099999999999997E-2</v>
+        <f>maternal_mortality/1000</f>
+        <v>4.0099999999999997E-3</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -20089,7 +20085,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28">
-        <v>3.5999999999999997E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -14569,7 +14569,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -19783,7 +19783,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19859,9 +19859,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="28">
-        <v>0</v>
-      </c>
+      <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
@@ -19898,9 +19896,7 @@
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="28">
-        <v>0.05</v>
-      </c>
+      <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28">
         <v>3.9E-2</v>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A74EB16-E57F-43FD-989D-00DC64EFA992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21130" windowWidth="20740" windowHeight="11760" tabRatio="961" activeTab="5"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" tabRatio="885" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -16,10 +22,10 @@
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId10"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId12"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -85,8 +91,16 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -95,12 +109,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -257,12 +271,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -315,12 +329,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -358,12 +372,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -392,12 +406,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1266,12 +1280,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1579,7 +1593,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2297,7 +2311,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2333,8 +2347,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2344,7 +2358,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2354,16 +2368,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2396,7 +2410,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2411,7 +2425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2441,7 +2455,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2460,28 +2474,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2584,7 +2598,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2614,7 +2628,7 @@
   </cellXfs>
   <cellStyles count="728">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="727"/>
+    <cellStyle name="Comma 2" xfId="727" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3338,8 +3352,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -3398,7 +3412,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3469,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3526,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,7 +3583,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3640,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3697,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3754,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3811,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,7 +3868,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3925,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3982,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4039,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4082,7 +4096,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4153,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4196,7 +4210,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4253,7 +4267,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4324,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4381,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4430,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4779,7 +4793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -5236,156 +5250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="80"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="80"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="80"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="80"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mJIhFbJiXwMDYdaTQpBnnIuyYOuT68NH0zRKA9hB05n6uZvdwWxrgEXuFwGJ+96DUDA/ASxdRlcLT7WZRHSmMg==" saltValue="bb4cIfhca5ee56tuIEArcQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5482,8 +5347,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5596,8 +5461,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7307,7 +7172,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8AA2I9UZPCvjoGOxL0MMyqqXoHDNS7n4JtfrsQRho74JNJJKUigxuy0/aEjLs4m9INQV0OZqejhY0qqpkSRx4A==" saltValue="BKXFXqwFrNK8M/n7gCZbMQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="B14:O21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7315,8 +7180,157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="80"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="80"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mJIhFbJiXwMDYdaTQpBnnIuyYOuT68NH0zRKA9hB05n6uZvdwWxrgEXuFwGJ+96DUDA/ASxdRlcLT7WZRHSmMg==" saltValue="bb4cIfhca5ee56tuIEArcQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7349,7 +7363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7558,7 +7572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9327,7 +9341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10073,7 +10087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10447,7 +10461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11564,6 +11578,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11573,12 +11593,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11586,7 +11600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -12682,7 +12696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13079,13 +13093,13 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -14569,7 +14583,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -15982,14 +15996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16292,14 +16306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16375,10 +16389,10 @@
         <v>259</v>
       </c>
       <c r="C4" s="136">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="136">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="136">
         <v>0</v>
@@ -16413,10 +16427,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="136">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D6" s="136">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E6" s="136">
         <v>0</v>
@@ -16571,14 +16585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17314,37 +17328,37 @@
         <v>1</v>
       </c>
       <c r="E20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O20" s="136">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -17367,14 +17381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17417,16 +17431,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="136">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="136">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="136">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="136">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -17448,16 +17462,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="136">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="136">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="136">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G5" s="136">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -17468,14 +17482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="111" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A2" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17554,13 +17568,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="136">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="G3" s="136">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="H3" s="136">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -17574,13 +17588,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="136">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="136">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="136">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -17663,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="136">
-        <v>0.25970149253731345</v>
+        <v>0.25970149253731301</v>
       </c>
       <c r="G8" s="136">
         <v>0.25970149253731345</v>
@@ -17778,13 +17792,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="136">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="136">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H13" s="136">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -17798,13 +17812,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="136">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="136">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="H14" s="136">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="36"/>
     </row>
@@ -17822,13 +17836,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="136">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="136">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="136">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="36"/>
     </row>
@@ -17843,13 +17857,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="136">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="136">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="136">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I16" s="36"/>
     </row>
@@ -17885,7 +17899,7 @@
         <v>268</v>
       </c>
       <c r="D18" s="136">
-        <v>0.46</v>
+        <v>0.186</v>
       </c>
       <c r="E18" s="136">
         <v>0</v>
@@ -17932,7 +17946,7 @@
         <v>268</v>
       </c>
       <c r="D20" s="136">
-        <v>0.46</v>
+        <v>0.186</v>
       </c>
       <c r="E20" s="136">
         <v>0</v>
@@ -17978,7 +17992,7 @@
         <v>268</v>
       </c>
       <c r="D22" s="136">
-        <v>0.46</v>
+        <v>0.186</v>
       </c>
       <c r="E22" s="136">
         <v>0</v>
@@ -18354,19 +18368,19 @@
         <v>268</v>
       </c>
       <c r="D39" s="136">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E39" s="136">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F39" s="136">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G39" s="136">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H39" s="136">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -18374,19 +18388,19 @@
         <v>269</v>
       </c>
       <c r="D40" s="136">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E40" s="136">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="F40" s="136">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="G40" s="136">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="H40" s="136">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -18417,19 +18431,19 @@
         <v>268</v>
       </c>
       <c r="D42" s="136">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="136">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="136">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="136">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="136">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -18437,19 +18451,19 @@
         <v>269</v>
       </c>
       <c r="D43" s="136">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E43" s="136">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F43" s="136">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="G43" s="136">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="H43" s="136">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -18483,19 +18497,19 @@
         <v>268</v>
       </c>
       <c r="D45" s="136">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="E45" s="136">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F45" s="136">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="136">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="H45" s="136">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -18529,19 +18543,19 @@
         <v>268</v>
       </c>
       <c r="D47" s="136">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="E47" s="136">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="F47" s="136">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="G47" s="136">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="H47" s="136">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -18558,7 +18572,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E48" s="136">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F48" s="136">
         <v>0</v>
@@ -18575,10 +18589,10 @@
         <v>268</v>
       </c>
       <c r="D49" s="136">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="E49" s="136">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F49" s="136">
         <v>0</v>
@@ -18598,14 +18612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18754,16 +18768,16 @@
         <v>268</v>
       </c>
       <c r="D7" s="136">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="136">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="136">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="136">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="128"/>
     </row>
@@ -18774,7 +18788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19213,7 +19227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19287,23 +19301,23 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
     </row>
@@ -19398,23 +19412,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19640,7 +19654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19776,13 +19790,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20091,7 +20105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20367,7 +20381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20430,7 +20444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -21103,7 +21117,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jSdherlZJbZ8Sy1L59bo9v5QauB4K+9LWnSRVPNbXJxTAgxgiv9ErxgnISHZ2apMgabDAJDnLmaWIXWQOwB0iA==" saltValue="GDpAVnNFn9RTLmsUAjB9Mw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="A2:D38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21112,7 +21126,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A74EB16-E57F-43FD-989D-00DC64EFA992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4B1E4-D389-4670-BF20-494694F50BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" tabRatio="885" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1275,6 +1275,12 @@
   </si>
   <si>
     <t>Effectiveness incidence</t>
+  </si>
+  <si>
+    <t>Prevalence of pre-eclampsia</t>
+  </si>
+  <si>
+    <t>Prevalence of eclampsia</t>
   </si>
 </sst>
 </file>
@@ -4799,8 +4805,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5239,11 +5245,27 @@
         <v>0.42</v>
       </c>
     </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="66">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="66">
+        <v>1.4E-2</v>
+      </c>
+    </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9F" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fe3O/MXXtRaxGdMonYb1nwe/aLwU7VpdYcsmQcLBypCxbjEhlBLAvV27SVO87s23lMfP3pbK5a6p6d5Q5jn+Cg==" saltValue="v5slMoMRZDGvHohUBj+cCg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -7187,7 +7209,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11578,12 +11600,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11593,6 +11609,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20112,7 +20134,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20290,7 +20312,9 @@
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="80"/>
+      <c r="E14" s="80" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4B1E4-D389-4670-BF20-494694F50BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57666FFC-B104-448E-A4B3-04EB8EFAD0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>Cost-coverage relationship</t>
   </si>
   <si>
-    <t>Unit cost (US$ per person per year)</t>
-  </si>
-  <si>
     <t>IFAS (health facility)</t>
   </si>
   <si>
@@ -1281,6 +1278,9 @@
   </si>
   <si>
     <t>Prevalence of eclampsia</t>
+  </si>
+  <si>
+    <t>Unit cost (US$)</t>
   </si>
 </sst>
 </file>
@@ -4805,7 +4805,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -6216,7 +6216,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>59</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8766,7 +8766,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -9393,16 +9393,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -9414,13 +9414,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9586,7 +9586,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -9656,7 +9656,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
@@ -10136,19 +10136,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -10160,13 +10160,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>177</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="137" t="s">
         <v>32</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="137" t="s">
         <v>32</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="137" t="s">
         <v>32</v>
@@ -11600,6 +11600,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11609,12 +11615,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12740,7 +12740,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12760,7 +12760,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12952,7 +12952,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -13138,18 +13138,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>233</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -13181,7 +13181,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13352,7 +13352,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13411,7 +13411,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13610,7 +13610,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13641,7 +13641,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13669,7 +13669,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13756,7 +13756,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13868,18 +13868,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>240</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -14026,7 +14026,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14141,7 +14141,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14256,7 +14256,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14371,7 +14371,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14486,7 +14486,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14610,10 +14610,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="103" t="s">
         <v>53</v>
@@ -14639,7 +14639,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14686,7 +14686,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14733,7 +14733,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14789,10 +14789,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -15867,7 +15867,7 @@
         <v>169</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -16042,7 +16042,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16068,10 +16068,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="136" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>250</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16089,7 +16089,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16182,7 +16182,7 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16212,15 +16212,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -16241,7 +16241,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -16264,7 +16264,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16285,7 +16285,7 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16370,7 +16370,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16388,7 +16388,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16408,7 +16408,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16426,7 +16426,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16443,10 +16443,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16464,7 +16464,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16484,7 +16484,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16502,7 +16502,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16522,7 +16522,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16540,7 +16540,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16560,7 +16560,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16578,7 +16578,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -16763,7 +16763,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -17203,7 +17203,7 @@
     </row>
     <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17467,7 +17467,7 @@
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17532,10 +17532,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="125" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="125" t="s">
-        <v>266</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17561,7 +17561,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17581,7 +17581,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17627,7 +17627,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17690,7 +17690,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17716,7 +17716,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17736,7 +17736,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17805,7 +17805,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17849,7 +17849,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17897,7 +17897,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17945,7 +17945,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17991,7 +17991,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -18037,7 +18037,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18103,7 +18103,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18123,7 +18123,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18169,7 +18169,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18189,7 +18189,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18275,7 +18275,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18301,7 +18301,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18321,7 +18321,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18367,7 +18367,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18387,7 +18387,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="136">
         <v>0.6</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="136">
         <v>0.45</v>
@@ -18430,7 +18430,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18470,7 +18470,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18496,7 +18496,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18516,7 +18516,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18542,7 +18542,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18562,7 +18562,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18588,7 +18588,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18658,7 +18658,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
@@ -18683,7 +18683,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18725,7 +18725,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18744,7 +18744,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18768,7 +18768,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18787,7 +18787,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18840,10 +18840,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>211</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18942,7 +18942,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -19148,7 +19148,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>32</v>
@@ -20474,8 +20474,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20500,7 +20500,7 @@
         <v>200</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>205</v>
@@ -20661,7 +20661,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20729,7 +20729,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -21140,7 +21140,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jSdherlZJbZ8Sy1L59bo9v5QauB4K+9LWnSRVPNbXJxTAgxgiv9ErxgnISHZ2apMgabDAJDnLmaWIXWQOwB0iA==" saltValue="GDpAVnNFn9RTLmsUAjB9Mw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="11KK+8YPsWPayRfkTglngxmYKXHrDGDfuRB0aZHm6MFFs2ZkzSdhjVK82lgTOCpg8R9z/N0v81GzaOk7EIUi5g==" saltValue="086D79ZNUpTIRk1q+qTm2g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57666FFC-B104-448E-A4B3-04EB8EFAD0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426329F-8FDB-4E21-A895-3C510D2652B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -114,6 +112,30 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{405E2CD2-01A9-4D5D-B651-5AA541CC6DD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cost per person per year, or per pregnancy</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
@@ -134,50 +156,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment) * (annual diarrhoea incidence)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{8E161222-8E3F-4FE6-A452-628643815767}">
       <text>
         <r>
           <rPr>
@@ -197,27 +180,21 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Cost per treatment</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{48F98C63-5085-444F-B5B9-BBE50C5984CE}">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment episode) * (SAM prevalence) * 2.6
-</t>
+          <t>Nick Scott:</t>
         </r>
         <r>
           <rPr>
@@ -227,42 +204,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost per treatment episode includes management of MAM (if selected) and is an average over delivery modalities. See user guide for further information</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The cost per child per year can be estimated as 
-= (cost per treatment) * (annual diarrhoea incidence)
-Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
@@ -1293,7 +1235,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1463,6 +1405,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4805,18 +4760,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4827,14 +4782,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4843,7 +4798,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4852,17 +4807,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4870,7 +4825,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4878,7 +4833,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4886,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4894,7 +4849,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4902,7 +4857,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4910,7 +4865,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4918,17 +4873,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4936,7 +4891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4944,7 +4899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4960,7 +4915,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4969,15 +4924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4985,7 +4940,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4993,7 +4948,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -5001,7 +4956,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -5009,18 +4964,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -5028,7 +4983,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -5036,7 +4991,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5044,7 +4999,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5052,7 +5007,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5061,20 +5016,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +5047,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5102,7 +5057,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5110,7 +5065,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5118,7 +5073,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5126,16 +5081,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5144,7 +5099,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5108,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5163,7 +5118,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5174,16 +5129,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5192,7 +5147,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5200,7 +5155,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5208,7 +5163,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5216,7 +5171,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5224,12 +5179,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5237,7 +5192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5245,7 +5200,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5253,7 +5208,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5261,7 +5216,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5282,85 +5237,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5380,9 +5335,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5402,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5427,7 +5382,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5452,7 +5407,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5494,19 +5449,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5553,7 +5508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5604,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5648,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5692,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5738,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5785,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -5834,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5880,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5928,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -5972,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
@@ -6021,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6065,10 +6020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6119,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6164,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6213,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6262,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6310,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6354,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6398,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6446,10 +6401,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6500,7 +6455,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6548,7 +6503,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6596,7 +6551,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6644,7 +6599,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6689,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6699,7 +6654,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6757,7 +6712,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6812,7 +6767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6867,7 +6822,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -6911,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -6968,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7012,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7057,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7101,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7145,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7189,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7213,15 +7168,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -7232,7 +7187,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -7241,7 +7196,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -7250,7 +7205,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -7259,7 +7214,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -7268,77 +7223,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -7357,24 +7312,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7395,16 +7350,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7421,7 +7376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7394,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7457,7 +7412,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7430,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7448,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7511,7 +7466,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7484,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7565,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7583,7 +7538,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7604,20 +7559,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7711,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7755,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7799,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7843,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7931,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7975,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8107,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8151,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8195,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8239,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8283,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8299,7 +8254,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8346,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8391,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="90" t="s">
         <v>187</v>
       </c>
@@ -8435,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="90" t="s">
         <v>207</v>
       </c>
@@ -8479,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="91" t="s">
         <v>57</v>
       </c>
@@ -8523,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8611,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8671,7 +8626,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8674,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8763,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8808,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8896,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8912,7 +8867,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8959,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9003,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9180,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9224,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9268,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9312,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9373,22 +9328,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9423,7 +9378,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9440,7 +9395,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9412,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9474,7 +9429,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9446,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9510,7 +9465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9484,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9548,7 +9503,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +9522,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9584,7 +9539,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9601,7 +9556,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9618,7 +9573,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9635,7 +9590,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="90" t="s">
         <v>187</v>
       </c>
@@ -9654,7 +9609,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="90" t="s">
         <v>207</v>
       </c>
@@ -9673,7 +9628,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9694,7 +9649,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9711,7 +9666,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9730,7 +9685,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9749,7 +9704,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9768,7 +9723,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9787,7 +9742,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9808,7 +9763,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9827,7 +9782,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9844,7 +9799,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9861,7 +9816,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9878,7 +9833,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9897,7 +9852,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9914,7 +9869,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9933,7 +9888,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9950,7 +9905,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9969,7 +9924,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9988,7 +9943,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10007,7 +9962,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10026,7 +9981,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10045,7 +10000,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10064,7 +10019,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10081,7 +10036,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10119,22 +10074,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10169,7 +10124,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10198,7 +10153,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10182,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10211,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10240,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10314,7 +10269,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10335,7 +10290,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10356,7 +10311,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10377,7 +10332,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10398,7 +10353,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10419,7 +10374,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10438,7 +10393,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10457,7 +10412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10493,15 +10448,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10527,7 +10482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10553,7 +10508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10575,7 +10530,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10597,7 +10552,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10621,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10642,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10663,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10707,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10728,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10751,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10772,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10793,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10837,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10858,7 +10813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="96" t="s">
         <v>172</v>
       </c>
@@ -10881,14 +10836,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10914,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10935,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10956,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -11000,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11021,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11044,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11065,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11086,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11109,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11130,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11151,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11195,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11216,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
@@ -11239,14 +11194,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="97" t="s">
         <v>220</v>
       </c>
@@ -11272,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11293,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11314,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11337,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11358,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11379,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11402,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11423,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11444,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11488,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11509,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11532,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11553,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11574,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="98" t="s">
         <v>172</v>
       </c>
@@ -11600,12 +11555,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11615,6 +11564,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11632,14 +11587,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11701,7 +11656,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11734,7 +11689,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11767,7 +11722,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11800,7 +11755,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11833,7 +11788,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11866,7 +11821,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11899,7 +11854,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11932,7 +11887,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11965,7 +11920,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11998,7 +11953,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -12031,7 +11986,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12064,7 +12019,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12097,7 +12052,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12130,7 +12085,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12153,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12176,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12199,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12222,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12245,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12268,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12291,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12314,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12337,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12360,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12383,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12406,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12429,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12452,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12475,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12498,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12521,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12544,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12567,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12590,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12613,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12636,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12659,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12682,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12728,22 +12683,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -12758,7 +12713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12768,7 +12723,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="107" t="s">
         <v>75</v>
       </c>
@@ -12785,7 +12740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="107" t="s">
         <v>76</v>
       </c>
@@ -12802,7 +12757,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="107" t="s">
         <v>77</v>
       </c>
@@ -12819,7 +12774,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="107" t="s">
         <v>78</v>
       </c>
@@ -12836,13 +12791,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12860,14 +12815,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="99" t="s">
         <v>224</v>
       </c>
@@ -12877,7 +12832,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12887,7 +12842,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="113" t="s">
         <v>226</v>
       </c>
@@ -12905,7 +12860,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="113" t="s">
         <v>227</v>
       </c>
@@ -12923,7 +12878,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="113" t="s">
         <v>228</v>
       </c>
@@ -12941,7 +12896,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12950,7 +12905,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12961,7 +12916,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="117" t="s">
         <v>73</v>
       </c>
@@ -12979,7 +12934,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="117" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +12952,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="117" t="s">
         <v>8</v>
       </c>
@@ -13015,7 +12970,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="117" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +12988,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="117" t="s">
         <v>13</v>
       </c>
@@ -13050,7 +13005,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="117" t="s">
         <v>14</v>
       </c>
@@ -13067,7 +13022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="117" t="s">
         <v>27</v>
       </c>
@@ -13084,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="117" t="s">
         <v>15</v>
       </c>
@@ -13101,10 +13056,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13125,23 +13080,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1">
       <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="118" t="s">
         <v>211</v>
       </c>
@@ -13175,7 +13130,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13207,7 +13162,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13235,7 +13190,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13263,7 +13218,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13291,7 +13246,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13322,7 +13277,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13350,7 +13305,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13378,7 +13333,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13406,7 +13361,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13437,7 +13392,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13465,7 +13420,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13493,7 +13448,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13521,7 +13476,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13507,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13580,7 +13535,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13608,7 +13563,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13636,7 +13591,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13667,7 +13622,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13695,7 +13650,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13723,7 +13678,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13751,7 +13706,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13782,7 +13737,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13810,7 +13765,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13838,7 +13793,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13866,12 +13821,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1">
       <c r="A28" s="99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="121" t="s">
         <v>238</v>
       </c>
@@ -13905,7 +13860,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13937,7 +13892,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13965,7 +13920,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13993,7 +13948,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14021,7 +13976,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14052,7 +14007,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14080,7 +14035,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14108,7 +14063,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14136,7 +14091,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14167,7 +14122,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14195,7 +14150,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14223,7 +14178,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14251,7 +14206,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14237,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14310,7 +14265,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14338,7 +14293,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14366,7 +14321,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14397,7 +14352,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14425,7 +14380,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14453,7 +14408,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14481,7 +14436,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14512,7 +14467,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14540,7 +14495,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14568,7 +14523,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14596,16 +14551,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14588,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14659,7 +14614,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14681,7 +14636,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14706,7 +14661,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14728,7 +14683,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14753,7 +14708,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14775,16 +14730,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -14818,7 +14773,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14850,7 +14805,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14878,7 +14833,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14906,7 +14861,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14934,7 +14889,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14920,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14993,7 +14948,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15021,7 +14976,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15049,7 +15004,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15080,7 +15035,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15108,7 +15063,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15136,7 +15091,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15164,7 +15119,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15150,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15223,7 +15178,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15251,7 +15206,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15279,7 +15234,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15310,7 +15265,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15338,7 +15293,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15366,7 +15321,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15394,7 +15349,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15425,7 +15380,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15453,7 +15408,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15481,7 +15436,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15509,7 +15464,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15540,7 +15495,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15568,7 +15523,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15596,7 +15551,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15624,7 +15579,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15655,7 +15610,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15683,7 +15638,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15711,7 +15666,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15739,7 +15694,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15770,7 +15725,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15798,7 +15753,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15826,7 +15781,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15854,12 +15809,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -15893,7 +15848,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15923,7 +15878,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15951,7 +15906,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15979,7 +15934,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16007,7 +15962,7 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16028,24 +15983,24 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -16066,7 +16021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="113" t="s">
         <v>248</v>
       </c>
@@ -16086,7 +16041,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16107,12 +16062,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="117" t="s">
         <v>58</v>
       </c>
@@ -16132,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="117" t="s">
         <v>136</v>
       </c>
@@ -16152,7 +16107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="117" t="s">
         <v>60</v>
       </c>
@@ -16172,7 +16127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16180,12 +16135,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>195</v>
@@ -16206,16 +16161,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="125" t="s">
         <v>238</v>
       </c>
@@ -16238,7 +16193,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>255</v>
@@ -16259,7 +16214,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
@@ -16282,13 +16237,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16302,7 +16257,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="113" t="s">
         <v>197</v>
       </c>
@@ -16338,16 +16293,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -16365,7 +16320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="90" t="s">
         <v>29</v>
       </c>
@@ -16385,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16403,7 +16358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="90" t="s">
         <v>187</v>
       </c>
@@ -16423,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16441,7 +16396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="90" t="s">
         <v>207</v>
       </c>
@@ -16461,7 +16416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16479,7 +16434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="90" t="s">
         <v>57</v>
       </c>
@@ -16499,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16517,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="90" t="s">
         <v>34</v>
       </c>
@@ -16537,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16555,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="90" t="s">
         <v>59</v>
       </c>
@@ -16575,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16593,10 +16548,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
@@ -16617,15 +16572,15 @@
       <selection activeCell="E20" sqref="E20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16668,12 +16623,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16717,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16761,7 +16716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16805,7 +16760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16849,7 +16804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16893,7 +16848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="90" t="s">
         <v>187</v>
       </c>
@@ -16937,7 +16892,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="90" t="s">
         <v>207</v>
       </c>
@@ -16981,7 +16936,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17025,7 +16980,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="90" t="s">
         <v>136</v>
       </c>
@@ -17069,7 +17024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17113,7 +17068,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17157,7 +17112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17201,13 +17156,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="90" t="s">
         <v>63</v>
       </c>
@@ -17251,7 +17206,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="90" t="s">
         <v>64</v>
       </c>
@@ -17295,7 +17250,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="90" t="s">
         <v>62</v>
       </c>
@@ -17339,7 +17294,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="90" t="s">
         <v>47</v>
       </c>
@@ -17383,16 +17338,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17413,15 +17368,15 @@
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17440,12 +17395,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17465,7 +17420,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17476,7 +17431,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="90" t="s">
         <v>183</v>
       </c>
@@ -17514,20 +17469,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17553,7 +17508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17579,7 +17534,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17599,7 +17554,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17619,7 +17574,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17645,7 +17600,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17665,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17688,7 +17643,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17708,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17734,7 +17689,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17754,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17777,7 +17732,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17797,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17823,7 +17778,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17844,7 +17799,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17868,7 +17823,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17889,7 +17844,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17916,7 +17871,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17937,7 +17892,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17963,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17983,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18009,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18029,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18055,7 +18010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18075,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18095,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18121,7 +18076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18141,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18161,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18187,7 +18142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18207,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18227,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18253,7 +18208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18273,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18293,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18339,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18359,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18385,7 +18340,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18405,7 +18360,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18425,7 +18380,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18448,7 +18403,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18468,7 +18423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18488,7 +18443,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18514,7 +18469,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18534,7 +18489,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18560,7 +18515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18580,7 +18535,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18606,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18644,16 +18599,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -18675,7 +18630,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18699,7 +18654,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18717,7 +18672,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18741,7 +18696,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18760,7 +18715,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18784,7 +18739,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18820,14 +18775,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18838,7 +18793,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18853,7 +18808,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18861,7 +18816,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18869,7 +18824,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18877,7 +18832,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18885,7 +18840,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18848,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18901,7 +18856,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18909,7 +18864,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18917,7 +18872,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18928,7 +18883,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18937,7 +18892,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18958,7 +18913,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18975,7 +18930,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18992,7 +18947,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -19009,7 +18964,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -19026,7 +18981,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +18998,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19060,7 +19015,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19032,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19094,7 +19049,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19111,7 +19066,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19134,7 +19089,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19143,7 +19098,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19159,7 +19114,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19167,7 +19122,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19175,7 +19130,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19183,7 +19138,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19191,7 +19146,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19199,7 +19154,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19207,7 +19162,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19215,7 +19170,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19223,7 +19178,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19231,7 +19186,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19259,13 +19214,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19289,7 +19244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19317,7 +19272,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19343,7 +19298,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19364,7 +19319,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19385,7 +19340,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19393,7 +19348,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19401,7 +19356,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19429,7 +19384,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19454,7 +19409,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19474,7 +19429,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19494,7 +19449,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19508,7 +19463,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19552,7 +19507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19596,7 +19551,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19653,14 +19608,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19686,13 +19641,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19716,7 +19671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19739,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19759,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19779,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19822,14 +19777,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19879,7 +19834,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19906,10 +19861,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19938,10 +19893,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19968,7 +19923,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19992,7 +19947,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20018,7 +19973,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20045,7 +20000,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20069,7 +20024,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20096,7 +20051,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20137,15 +20092,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20162,7 +20117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20176,7 +20131,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20190,7 +20145,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20204,7 +20159,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20218,7 +20173,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20232,7 +20187,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20241,7 +20196,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20257,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20269,7 +20224,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20281,7 +20236,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20293,7 +20248,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20305,7 +20260,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20316,7 +20271,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20332,7 +20287,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20346,7 +20301,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20360,7 +20315,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20374,7 +20329,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20388,7 +20343,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20415,15 +20370,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20437,7 +20392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20449,7 +20404,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20474,21 +20429,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20506,7 +20461,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20523,7 +20478,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20540,7 +20495,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20557,7 +20512,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20574,7 +20529,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20591,7 +20546,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20608,7 +20563,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20625,7 +20580,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20642,7 +20597,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20659,7 +20614,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20676,7 +20631,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20693,7 +20648,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20710,7 +20665,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20727,7 +20682,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20744,7 +20699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20761,7 +20716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20778,7 +20733,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.9" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20795,7 +20750,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20812,7 +20767,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20829,7 +20784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20846,7 +20801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20863,7 +20818,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20880,7 +20835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20897,7 +20852,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20914,7 +20869,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20931,7 +20886,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20948,7 +20903,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20965,7 +20920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20982,7 +20937,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20993,13 +20948,13 @@
         <v>0.95</v>
       </c>
       <c r="D30" s="82">
-        <v>5.3</v>
+        <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -21016,7 +20971,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -21033,7 +20988,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21050,7 +21005,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21067,7 +21022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21084,7 +21039,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21102,7 +21057,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21119,7 +21074,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21136,11 +21091,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="11KK+8YPsWPayRfkTglngxmYKXHrDGDfuRB0aZHm6MFFs2ZkzSdhjVK82lgTOCpg8R9z/N0v81GzaOk7EIUi5g==" saltValue="086D79ZNUpTIRk1q+qTm2g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bTQxzE1+nQweLYixk9d53GErZOhuGoWnRxp3kR6crDB8hYiYhvgmARbQjn/KHEMXvHzUPO3MUtIfs8tZYjvlnw==" saltValue="2S1/aGC0lK9A0SZ34ci+9w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426329F-8FDB-4E21-A895-3C510D2652B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708213C8-B74F-4753-B1A0-F0D5E8D45CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,14 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -120,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -129,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cost per person per year, or per pregnancy</t>
@@ -1235,7 +1237,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1405,19 +1407,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4760,18 +4749,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4782,14 +4771,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4798,7 +4787,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4807,17 +4796,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4825,7 +4814,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4833,7 +4822,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4841,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4857,7 +4846,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4865,7 +4854,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4873,17 +4862,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4891,7 +4880,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4899,7 +4888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4907,7 +4896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4915,7 +4904,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4924,15 +4913,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4940,7 +4929,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4948,7 +4937,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -4956,7 +4945,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -4964,18 +4953,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -4983,7 +4972,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -4991,7 +4980,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -4999,7 +4988,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5007,7 +4996,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5016,20 +5005,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5037,7 +5026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5047,7 +5036,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5057,7 +5046,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5065,7 +5054,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5073,7 +5062,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5081,16 +5070,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5099,7 +5088,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5108,7 +5097,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5118,7 +5107,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5129,16 +5118,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5147,7 +5136,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5155,7 +5144,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5163,7 +5152,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5171,7 +5160,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5179,12 +5168,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5192,7 +5181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5200,7 +5189,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5208,7 +5197,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5216,7 +5205,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5237,85 +5226,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5335,9 +5324,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5357,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5382,7 +5371,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5407,7 +5396,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5445,23 +5434,23 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5508,7 +5497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5559,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5603,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5647,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5693,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5740,29 +5729,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5789,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5835,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5883,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -5927,29 +5916,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -5976,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6020,10 +6009,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6074,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6119,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6168,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6217,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6265,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6309,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6353,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6401,10 +6390,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6455,7 +6444,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6503,7 +6492,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6551,7 +6540,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6599,7 +6588,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6644,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6654,7 +6643,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6712,7 +6701,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6767,7 +6756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6822,7 +6811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -6866,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -6923,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -6967,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7012,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7056,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7100,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7144,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7168,15 +7157,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -7187,7 +7176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -7196,7 +7185,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -7205,7 +7194,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -7214,7 +7203,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -7223,77 +7212,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -7312,24 +7301,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7350,16 +7339,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7376,7 +7365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7394,7 +7383,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7412,7 +7401,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7430,7 +7419,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7448,7 +7437,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7466,7 +7455,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7484,7 +7473,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7502,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7520,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7538,7 +7527,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7559,20 +7548,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7619,7 +7608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7666,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7710,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7754,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7798,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7842,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7886,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7930,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7974,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8018,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8062,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8106,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8150,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8194,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8238,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8254,7 +8243,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8301,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8346,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="90" t="s">
         <v>187</v>
       </c>
@@ -8390,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
         <v>207</v>
       </c>
@@ -8434,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="91" t="s">
         <v>57</v>
       </c>
@@ -8478,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8522,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8566,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8610,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8626,7 +8615,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8674,7 +8663,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8718,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8763,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8807,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8851,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8867,7 +8856,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8914,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8958,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9002,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9046,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9090,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9135,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9179,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9223,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9267,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9328,22 +9317,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9378,7 +9367,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9395,7 +9384,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9412,7 +9401,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9429,7 +9418,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9446,7 +9435,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9465,7 +9454,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9484,7 +9473,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9503,7 +9492,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9522,7 +9511,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9539,7 +9528,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9556,7 +9545,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9573,7 +9562,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9590,7 +9579,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>187</v>
       </c>
@@ -9609,7 +9598,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>207</v>
       </c>
@@ -9628,7 +9617,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9649,7 +9638,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9666,7 +9655,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9685,7 +9674,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9704,7 +9693,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9723,7 +9712,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9742,7 +9731,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9763,7 +9752,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9782,7 +9771,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9799,7 +9788,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9816,7 +9805,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9833,7 +9822,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9852,7 +9841,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9869,7 +9858,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9888,7 +9877,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9905,7 +9894,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9924,7 +9913,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9943,7 +9932,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9962,7 +9951,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9981,7 +9970,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10000,7 +9989,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10019,7 +10008,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10036,7 +10025,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10074,22 +10063,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10124,7 +10113,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10153,7 +10142,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10182,7 +10171,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10211,7 +10200,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10240,7 +10229,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10269,7 +10258,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10290,7 +10279,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10311,7 +10300,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10332,7 +10321,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10353,7 +10342,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10374,7 +10363,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10393,7 +10382,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10412,7 +10401,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10448,15 +10437,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10482,7 +10471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10508,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10530,7 +10519,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10552,7 +10541,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10576,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10597,7 +10586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10618,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10641,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10662,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10683,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10706,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10727,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10748,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10771,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10792,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10813,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>172</v>
       </c>
@@ -10836,14 +10825,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10869,7 +10858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10890,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10911,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10934,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10955,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10976,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -10999,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11020,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11041,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11064,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11085,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11106,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11129,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11150,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11171,7 +11160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
@@ -11194,14 +11183,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="97" t="s">
         <v>220</v>
       </c>
@@ -11227,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11248,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11269,7 +11258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11292,7 +11281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11313,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11334,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11357,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11378,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11399,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11422,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11443,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11464,7 +11453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11487,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11508,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11529,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="98" t="s">
         <v>172</v>
       </c>
@@ -11587,14 +11576,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11623,7 +11612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11656,7 +11645,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11689,7 +11678,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11722,7 +11711,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11755,7 +11744,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11788,7 +11777,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11821,7 +11810,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11854,7 +11843,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11887,7 +11876,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11920,7 +11909,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11953,7 +11942,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11986,7 +11975,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12019,7 +12008,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12052,7 +12041,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12085,7 +12074,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12108,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12131,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12154,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12177,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12200,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12223,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12246,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12269,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12292,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12315,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12338,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12361,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12384,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12407,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12430,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12453,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12476,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12499,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12522,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12545,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12568,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12591,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12614,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12637,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12683,22 +12672,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -12713,7 +12702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12723,7 +12712,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="107" t="s">
         <v>75</v>
       </c>
@@ -12740,7 +12729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>76</v>
       </c>
@@ -12757,7 +12746,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="107" t="s">
         <v>77</v>
       </c>
@@ -12774,7 +12763,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="107" t="s">
         <v>78</v>
       </c>
@@ -12791,13 +12780,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12815,14 +12804,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>224</v>
       </c>
@@ -12832,7 +12821,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12842,7 +12831,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
         <v>226</v>
       </c>
@@ -12860,7 +12849,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="113" t="s">
         <v>227</v>
       </c>
@@ -12878,7 +12867,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="113" t="s">
         <v>228</v>
       </c>
@@ -12896,7 +12885,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12905,7 +12894,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12916,7 +12905,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="117" t="s">
         <v>73</v>
       </c>
@@ -12934,7 +12923,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="117" t="s">
         <v>7</v>
       </c>
@@ -12952,7 +12941,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="117" t="s">
         <v>8</v>
       </c>
@@ -12970,7 +12959,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="117" t="s">
         <v>10</v>
       </c>
@@ -12988,7 +12977,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="117" t="s">
         <v>13</v>
       </c>
@@ -13005,7 +12994,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="117" t="s">
         <v>14</v>
       </c>
@@ -13022,7 +13011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="117" t="s">
         <v>27</v>
       </c>
@@ -13039,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="117" t="s">
         <v>15</v>
       </c>
@@ -13056,10 +13045,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13080,23 +13069,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1">
+    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
         <v>211</v>
       </c>
@@ -13130,7 +13119,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13162,7 +13151,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13190,7 +13179,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13218,7 +13207,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13246,7 +13235,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13277,7 +13266,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13305,7 +13294,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13333,7 +13322,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13361,7 +13350,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13392,7 +13381,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13420,7 +13409,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13448,7 +13437,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13476,7 +13465,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13507,7 +13496,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13535,7 +13524,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13563,7 +13552,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13591,7 +13580,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13622,7 +13611,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13650,7 +13639,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13678,7 +13667,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13706,7 +13695,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13737,7 +13726,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13765,7 +13754,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13793,7 +13782,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13821,12 +13810,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1">
+    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
         <v>238</v>
       </c>
@@ -13860,7 +13849,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13892,7 +13881,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13920,7 +13909,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13948,7 +13937,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -13976,7 +13965,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14007,7 +13996,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14035,7 +14024,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14063,7 +14052,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14091,7 +14080,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14122,7 +14111,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14150,7 +14139,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14178,7 +14167,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14206,7 +14195,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14237,7 +14226,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14265,7 +14254,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14293,7 +14282,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14321,7 +14310,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14352,7 +14341,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14380,7 +14369,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14408,7 +14397,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14436,7 +14425,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14467,7 +14456,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14495,7 +14484,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14523,7 +14512,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14551,16 +14540,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1">
+    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -14588,7 +14577,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14614,7 +14603,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14636,7 +14625,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14661,7 +14650,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14683,7 +14672,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14708,7 +14697,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14730,16 +14719,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1">
+    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -14773,7 +14762,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14805,7 +14794,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14833,7 +14822,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14861,7 +14850,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14889,7 +14878,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14920,7 +14909,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14948,7 +14937,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -14976,7 +14965,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15004,7 +14993,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15035,7 +15024,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15063,7 +15052,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15091,7 +15080,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15119,7 +15108,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15150,7 +15139,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15178,7 +15167,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15206,7 +15195,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15234,7 +15223,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15265,7 +15254,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15293,7 +15282,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15321,7 +15310,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15349,7 +15338,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15380,7 +15369,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15408,7 +15397,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15436,7 +15425,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15464,7 +15453,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15495,7 +15484,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15523,7 +15512,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15551,7 +15540,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15579,7 +15568,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15610,7 +15599,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15638,7 +15627,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15666,7 +15655,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15694,7 +15683,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15725,7 +15714,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15753,7 +15742,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15781,7 +15770,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15809,12 +15798,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1">
+    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -15848,7 +15837,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15878,7 +15867,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15906,7 +15895,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15934,7 +15923,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -15962,7 +15951,7 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15983,24 +15972,24 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -16021,7 +16010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="113" t="s">
         <v>248</v>
       </c>
@@ -16041,7 +16030,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16062,12 +16051,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="117" t="s">
         <v>58</v>
       </c>
@@ -16087,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="117" t="s">
         <v>136</v>
       </c>
@@ -16107,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
         <v>60</v>
       </c>
@@ -16127,7 +16116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16135,12 +16124,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>195</v>
@@ -16161,16 +16150,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
         <v>238</v>
       </c>
@@ -16193,7 +16182,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>255</v>
@@ -16214,7 +16203,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
@@ -16237,13 +16226,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16257,7 +16246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="113" t="s">
         <v>197</v>
       </c>
@@ -16293,16 +16282,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -16320,7 +16309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>29</v>
       </c>
@@ -16340,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16358,7 +16347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>187</v>
       </c>
@@ -16378,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16396,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>207</v>
       </c>
@@ -16416,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16434,7 +16423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>57</v>
       </c>
@@ -16454,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16472,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>34</v>
       </c>
@@ -16492,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16510,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>59</v>
       </c>
@@ -16530,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16548,10 +16537,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
@@ -16572,15 +16561,15 @@
       <selection activeCell="E20" sqref="E20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16623,12 +16612,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16672,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16716,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16760,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16804,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16848,7 +16837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="90" t="s">
         <v>187</v>
       </c>
@@ -16892,7 +16881,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="90" t="s">
         <v>207</v>
       </c>
@@ -16936,7 +16925,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -16980,7 +16969,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="90" t="s">
         <v>136</v>
       </c>
@@ -17024,7 +17013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17068,7 +17057,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17112,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17156,13 +17145,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="90" t="s">
         <v>63</v>
       </c>
@@ -17206,7 +17195,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="90" t="s">
         <v>64</v>
       </c>
@@ -17250,7 +17239,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>62</v>
       </c>
@@ -17294,7 +17283,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>47</v>
       </c>
@@ -17338,16 +17327,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17368,15 +17357,15 @@
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17395,12 +17384,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17420,7 +17409,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17431,7 +17420,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
         <v>183</v>
       </c>
@@ -17469,20 +17458,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17508,7 +17497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17534,7 +17523,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17554,7 +17543,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17574,7 +17563,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17600,7 +17589,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17620,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17643,7 +17632,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17663,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17689,7 +17678,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17709,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17732,7 +17721,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17752,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17778,7 +17767,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17799,7 +17788,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17823,7 +17812,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17844,7 +17833,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17871,7 +17860,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17892,7 +17881,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17918,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17938,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17964,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -17984,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18010,7 +17999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18030,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18050,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18076,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18096,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18116,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18142,7 +18131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18162,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18182,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18208,7 +18197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18228,7 +18217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18248,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18274,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18294,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18314,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18340,7 +18329,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18360,7 +18349,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18380,7 +18369,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18403,7 +18392,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18423,7 +18412,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18443,7 +18432,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18469,7 +18458,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18489,7 +18478,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18515,7 +18504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18535,7 +18524,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18561,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18599,16 +18588,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -18630,7 +18619,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18654,7 +18643,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18672,7 +18661,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18696,7 +18685,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18715,7 +18704,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18739,7 +18728,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18775,14 +18764,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18793,7 +18782,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18808,7 +18797,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18816,7 +18805,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18824,7 +18813,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18832,7 +18821,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18840,7 +18829,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18848,7 +18837,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18856,7 +18845,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18864,7 +18853,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18872,7 +18861,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18883,7 +18872,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18892,7 +18881,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18913,7 +18902,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18930,7 +18919,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18947,7 +18936,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -18964,7 +18953,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -18981,7 +18970,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -18998,7 +18987,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19015,7 +19004,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19032,7 +19021,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19049,7 +19038,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19066,7 +19055,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19089,7 +19078,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19098,7 +19087,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19114,7 +19103,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19122,7 +19111,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19130,7 +19119,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19138,7 +19127,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19146,7 +19135,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19154,7 +19143,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19162,7 +19151,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19170,7 +19159,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19178,7 +19167,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19186,7 +19175,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19214,13 +19203,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19244,7 +19233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19272,7 +19261,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19298,7 +19287,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19319,7 +19308,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19340,7 +19329,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19348,7 +19337,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19356,7 +19345,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19384,7 +19373,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19409,7 +19398,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19429,7 +19418,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19449,7 +19438,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19463,7 +19452,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19507,7 +19496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19551,7 +19540,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19608,14 +19597,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19641,13 +19630,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19671,7 +19660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19694,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19714,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19734,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19777,14 +19766,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19834,7 +19823,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19861,10 +19850,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19893,10 +19882,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19923,7 +19912,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19947,7 +19936,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19973,7 +19962,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20000,7 +19989,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20024,7 +20013,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20051,7 +20040,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20092,15 +20081,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20117,7 +20106,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20131,7 +20120,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20145,7 +20134,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20159,7 +20148,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20173,7 +20162,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20187,7 +20176,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20196,7 +20185,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20212,7 +20201,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20224,7 +20213,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20236,7 +20225,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20248,7 +20237,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20260,7 +20249,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20271,7 +20260,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20287,7 +20276,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20301,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20315,7 +20304,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20329,7 +20318,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20343,7 +20332,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20370,15 +20359,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20392,7 +20381,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20404,7 +20393,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20433,17 +20422,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20461,7 +20450,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20478,7 +20467,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20495,7 +20484,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20512,7 +20501,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20529,7 +20518,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20546,7 +20535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20563,7 +20552,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20580,7 +20569,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20597,7 +20586,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20614,7 +20603,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20631,7 +20620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20648,7 +20637,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20665,7 +20654,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20682,7 +20671,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20699,7 +20688,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20716,7 +20705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20733,7 +20722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1">
+    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20750,7 +20739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20767,7 +20756,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20784,7 +20773,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20801,7 +20790,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20818,7 +20807,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20835,7 +20824,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20852,7 +20841,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20869,7 +20858,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20886,7 +20875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20903,7 +20892,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20920,7 +20909,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20937,7 +20926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20954,7 +20943,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -20971,7 +20960,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -20988,7 +20977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21005,7 +20994,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21022,7 +21011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21039,7 +21028,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21057,7 +21046,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21074,7 +21063,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21091,7 +21080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57666FFC-B104-448E-A4B3-04EB8EFAD0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F753F418-F927-429B-9493-28381EE21AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1293,7 +1291,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4805,18 +4803,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4827,14 +4825,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4843,7 +4841,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4852,17 +4850,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4870,7 +4868,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4878,7 +4876,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4918,17 +4916,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4969,15 +4967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4985,7 +4983,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4993,7 +4991,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -5009,18 +5007,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5052,7 +5050,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5061,20 +5059,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +5090,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5102,7 +5100,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5126,16 +5124,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5144,7 +5142,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5151,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5163,7 +5161,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5174,16 +5172,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5192,7 +5190,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5216,7 +5214,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5224,12 +5222,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5282,85 +5280,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5380,9 +5378,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5402,7 +5400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5427,7 +5425,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5452,7 +5450,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5491,22 +5489,22 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5553,7 +5551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5604,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5648,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5692,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5785,29 +5783,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5834,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5880,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5928,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -5972,29 +5970,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -6021,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6065,10 +6063,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6164,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6213,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6262,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6310,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6354,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6398,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6446,10 +6444,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6596,7 +6594,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6644,7 +6642,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6689,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6699,7 +6697,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6757,7 +6755,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -6911,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -6968,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7012,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7057,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7145,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7189,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7213,15 +7211,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -7232,7 +7230,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -7241,7 +7239,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -7250,7 +7248,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -7259,7 +7257,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -7268,77 +7266,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -7357,24 +7355,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7395,16 +7393,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7421,7 +7419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7437,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7457,7 +7455,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7604,20 +7602,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7711,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7755,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7799,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7843,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7931,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7975,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8107,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8151,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8195,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8239,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8299,7 +8297,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8346,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8391,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="90" t="s">
         <v>187</v>
       </c>
@@ -8435,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="90" t="s">
         <v>207</v>
       </c>
@@ -8479,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="91" t="s">
         <v>57</v>
       </c>
@@ -8523,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8611,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8671,7 +8669,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8717,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8763,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8808,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8896,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8912,7 +8910,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8959,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9003,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9180,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9224,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9268,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9312,7 +9310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9373,22 +9371,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9423,7 +9421,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9440,7 +9438,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9455,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9474,7 +9472,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9489,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9510,7 +9508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9527,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9548,7 +9546,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +9565,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9584,7 +9582,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9601,7 +9599,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9618,7 +9616,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9635,7 +9633,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="90" t="s">
         <v>187</v>
       </c>
@@ -9654,7 +9652,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="90" t="s">
         <v>207</v>
       </c>
@@ -9673,7 +9671,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9694,7 +9692,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9711,7 +9709,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9730,7 +9728,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9749,7 +9747,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9768,7 +9766,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9787,7 +9785,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9808,7 +9806,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9827,7 +9825,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9844,7 +9842,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9861,7 +9859,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9878,7 +9876,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9897,7 +9895,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9914,7 +9912,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9933,7 +9931,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9950,7 +9948,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9969,7 +9967,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9988,7 +9986,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10007,7 +10005,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10026,7 +10024,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10045,7 +10043,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10064,7 +10062,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10081,7 +10079,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10119,22 +10117,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10169,7 +10167,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10198,7 +10196,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10225,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10254,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10283,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10314,7 +10312,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10335,7 +10333,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10356,7 +10354,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10377,7 +10375,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10398,7 +10396,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10419,7 +10417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10438,7 +10436,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10493,15 +10491,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10527,7 +10525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10553,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10575,7 +10573,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10597,7 +10595,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10621,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10642,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10663,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10707,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10728,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10751,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10772,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10793,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10837,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10858,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="96" t="s">
         <v>172</v>
       </c>
@@ -10881,14 +10879,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10914,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10935,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10956,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -11000,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11021,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11044,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11065,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11086,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11109,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11130,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11151,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11195,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11216,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
@@ -11239,14 +11237,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="97" t="s">
         <v>220</v>
       </c>
@@ -11272,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11293,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11314,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11358,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11379,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11402,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11423,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11444,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11488,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11509,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11532,7 +11530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11553,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11574,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="98" t="s">
         <v>172</v>
       </c>
@@ -11600,12 +11598,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11615,6 +11607,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11632,14 +11630,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11701,7 +11699,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11734,7 +11732,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11767,7 +11765,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11800,7 +11798,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11833,7 +11831,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11866,7 +11864,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11899,7 +11897,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11932,7 +11930,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11965,7 +11963,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11998,7 +11996,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -12031,7 +12029,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12064,7 +12062,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12097,7 +12095,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12130,7 +12128,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12153,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12176,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12199,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12222,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12245,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12268,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12291,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12314,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12337,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12360,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12383,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12406,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12429,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12452,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12475,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12498,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12521,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12544,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12567,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12590,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12613,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12636,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12659,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12682,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12728,22 +12726,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -12758,7 +12756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12768,7 +12766,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="107" t="s">
         <v>75</v>
       </c>
@@ -12785,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="107" t="s">
         <v>76</v>
       </c>
@@ -12802,7 +12800,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="107" t="s">
         <v>77</v>
       </c>
@@ -12819,7 +12817,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="107" t="s">
         <v>78</v>
       </c>
@@ -12836,13 +12834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12860,14 +12858,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="99" t="s">
         <v>224</v>
       </c>
@@ -12877,7 +12875,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12887,7 +12885,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="113" t="s">
         <v>226</v>
       </c>
@@ -12905,7 +12903,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="113" t="s">
         <v>227</v>
       </c>
@@ -12923,7 +12921,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="113" t="s">
         <v>228</v>
       </c>
@@ -12941,7 +12939,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12950,7 +12948,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12961,7 +12959,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="117" t="s">
         <v>73</v>
       </c>
@@ -12979,7 +12977,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="117" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +12995,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="117" t="s">
         <v>8</v>
       </c>
@@ -13015,7 +13013,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="117" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +13031,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="117" t="s">
         <v>13</v>
       </c>
@@ -13050,7 +13048,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="117" t="s">
         <v>14</v>
       </c>
@@ -13067,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="117" t="s">
         <v>27</v>
       </c>
@@ -13084,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="117" t="s">
         <v>15</v>
       </c>
@@ -13101,10 +13099,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13125,23 +13123,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1">
       <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="118" t="s">
         <v>211</v>
       </c>
@@ -13175,7 +13173,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13207,7 +13205,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13235,7 +13233,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13263,7 +13261,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13291,7 +13289,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13322,7 +13320,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13350,7 +13348,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13378,7 +13376,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13406,7 +13404,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13437,7 +13435,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13465,7 +13463,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13493,7 +13491,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13521,7 +13519,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13550,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13580,7 +13578,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13608,7 +13606,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13636,7 +13634,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13667,7 +13665,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13695,7 +13693,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13723,7 +13721,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13751,7 +13749,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13782,7 +13780,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13810,7 +13808,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13838,7 +13836,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13866,12 +13864,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1">
       <c r="A28" s="99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="121" t="s">
         <v>238</v>
       </c>
@@ -13905,7 +13903,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13937,7 +13935,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13965,7 +13963,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13993,7 +13991,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14021,7 +14019,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14052,7 +14050,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14080,7 +14078,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14108,7 +14106,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14136,7 +14134,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14167,7 +14165,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14195,7 +14193,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14223,7 +14221,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14251,7 +14249,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14280,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14310,7 +14308,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14338,7 +14336,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14366,7 +14364,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14397,7 +14395,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14425,7 +14423,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14453,7 +14451,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14481,7 +14479,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14512,7 +14510,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14540,7 +14538,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14568,7 +14566,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14596,16 +14594,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14631,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14659,7 +14657,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14681,7 +14679,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14706,7 +14704,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14728,7 +14726,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14753,7 +14751,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14775,16 +14773,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -14818,7 +14816,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14850,7 +14848,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14878,7 +14876,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14906,7 +14904,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14934,7 +14932,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14963,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14993,7 +14991,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15021,7 +15019,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15049,7 +15047,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15080,7 +15078,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15108,7 +15106,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15136,7 +15134,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15164,7 +15162,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15193,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15223,7 +15221,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15251,7 +15249,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15279,7 +15277,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15310,7 +15308,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15338,7 +15336,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15366,7 +15364,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15394,7 +15392,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15425,7 +15423,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15453,7 +15451,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15481,7 +15479,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15509,7 +15507,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15540,7 +15538,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15568,7 +15566,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15596,7 +15594,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15624,7 +15622,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15655,7 +15653,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15683,7 +15681,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15711,7 +15709,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15739,7 +15737,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15770,7 +15768,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15798,7 +15796,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15826,7 +15824,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15854,12 +15852,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -15893,7 +15891,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15923,7 +15921,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15951,7 +15949,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15979,7 +15977,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16007,7 +16005,7 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16028,24 +16026,24 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -16066,7 +16064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="113" t="s">
         <v>248</v>
       </c>
@@ -16086,7 +16084,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16107,12 +16105,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="117" t="s">
         <v>58</v>
       </c>
@@ -16132,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="117" t="s">
         <v>136</v>
       </c>
@@ -16152,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="117" t="s">
         <v>60</v>
       </c>
@@ -16172,7 +16170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16180,12 +16178,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>195</v>
@@ -16206,16 +16204,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="125" t="s">
         <v>238</v>
       </c>
@@ -16238,7 +16236,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>255</v>
@@ -16259,7 +16257,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
@@ -16282,13 +16280,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16302,7 +16300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="113" t="s">
         <v>197</v>
       </c>
@@ -16338,16 +16336,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -16365,7 +16363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="90" t="s">
         <v>29</v>
       </c>
@@ -16385,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16403,7 +16401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="90" t="s">
         <v>187</v>
       </c>
@@ -16423,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16441,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="90" t="s">
         <v>207</v>
       </c>
@@ -16461,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16479,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="90" t="s">
         <v>57</v>
       </c>
@@ -16499,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16517,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="90" t="s">
         <v>34</v>
       </c>
@@ -16537,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16555,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="90" t="s">
         <v>59</v>
       </c>
@@ -16575,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16593,10 +16591,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
@@ -16617,15 +16615,15 @@
       <selection activeCell="E20" sqref="E20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16668,12 +16666,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16717,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16761,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16805,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16849,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16893,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="90" t="s">
         <v>187</v>
       </c>
@@ -16937,7 +16935,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="90" t="s">
         <v>207</v>
       </c>
@@ -16981,7 +16979,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17025,7 +17023,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="90" t="s">
         <v>136</v>
       </c>
@@ -17069,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17113,7 +17111,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17157,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17201,13 +17199,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="90" t="s">
         <v>63</v>
       </c>
@@ -17251,7 +17249,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="90" t="s">
         <v>64</v>
       </c>
@@ -17295,7 +17293,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="90" t="s">
         <v>62</v>
       </c>
@@ -17339,7 +17337,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="90" t="s">
         <v>47</v>
       </c>
@@ -17383,16 +17381,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17413,15 +17411,15 @@
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17440,12 +17438,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17465,7 +17463,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17476,7 +17474,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="90" t="s">
         <v>183</v>
       </c>
@@ -17514,20 +17512,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17553,7 +17551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17579,7 +17577,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17599,7 +17597,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17619,7 +17617,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17645,7 +17643,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17665,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17688,7 +17686,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17708,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17734,7 +17732,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17754,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17777,7 +17775,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17797,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17823,7 +17821,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17844,7 +17842,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17868,7 +17866,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17889,7 +17887,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17916,7 +17914,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17937,7 +17935,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17963,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17983,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18009,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18029,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18055,7 +18053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18075,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18095,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18121,7 +18119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18141,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18161,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18187,7 +18185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18207,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18227,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18253,7 +18251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18273,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18293,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18339,7 +18337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18359,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18385,7 +18383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18405,7 +18403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18425,7 +18423,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18448,7 +18446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18468,7 +18466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18488,7 +18486,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18514,7 +18512,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18534,7 +18532,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18560,7 +18558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18580,7 +18578,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18606,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18644,16 +18642,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -18675,7 +18673,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18699,7 +18697,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18717,7 +18715,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18741,7 +18739,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18760,7 +18758,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18784,7 +18782,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18820,14 +18818,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18838,7 +18836,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18853,7 +18851,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18861,7 +18859,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18869,7 +18867,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18877,7 +18875,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18885,7 +18883,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18891,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18901,7 +18899,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18909,7 +18907,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18917,7 +18915,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18928,7 +18926,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18937,7 +18935,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18958,7 +18956,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18975,7 +18973,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18992,7 +18990,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -19009,7 +19007,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -19026,7 +19024,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19041,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19060,7 +19058,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19075,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19094,7 +19092,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19111,7 +19109,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19134,7 +19132,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19143,7 +19141,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19159,7 +19157,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19167,7 +19165,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19175,7 +19173,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19183,7 +19181,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19191,7 +19189,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19199,7 +19197,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19207,7 +19205,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19215,7 +19213,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19223,7 +19221,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19231,7 +19229,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19259,13 +19257,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19289,7 +19287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19317,7 +19315,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19343,7 +19341,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19364,7 +19362,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19385,7 +19383,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19393,7 +19391,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19401,7 +19399,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19429,7 +19427,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19454,7 +19452,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19474,7 +19472,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19494,7 +19492,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19508,7 +19506,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19552,7 +19550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19596,7 +19594,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19653,14 +19651,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19686,13 +19684,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19716,7 +19714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19739,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19759,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19779,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19822,14 +19820,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19879,7 +19877,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19906,10 +19904,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19938,10 +19936,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19968,7 +19966,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19992,7 +19990,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20018,7 +20016,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20045,7 +20043,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20069,7 +20067,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20096,7 +20094,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20137,15 +20135,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20162,7 +20160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20176,7 +20174,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20190,7 +20188,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20204,7 +20202,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20218,7 +20216,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20232,7 +20230,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20241,7 +20239,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20257,7 +20255,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20269,7 +20267,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20281,7 +20279,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20293,7 +20291,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20305,7 +20303,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20316,7 +20314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20332,7 +20330,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20346,7 +20344,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20360,7 +20358,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20374,7 +20372,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20388,7 +20386,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20415,15 +20413,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20437,7 +20435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20449,7 +20447,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20474,21 +20472,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20506,7 +20504,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20523,7 +20521,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20540,7 +20538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20557,7 +20555,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20574,7 +20572,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20591,7 +20589,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20608,7 +20606,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20625,7 +20623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20642,7 +20640,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20659,7 +20657,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20676,7 +20674,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20693,7 +20691,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20710,7 +20708,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20727,7 +20725,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20744,7 +20742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20761,7 +20759,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20778,7 +20776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.9" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20795,7 +20793,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20812,7 +20810,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20829,7 +20827,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20846,7 +20844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20863,7 +20861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20880,7 +20878,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20897,7 +20895,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20914,7 +20912,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20931,7 +20929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20948,7 +20946,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20965,7 +20963,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20982,7 +20980,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20999,7 +20997,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -21016,7 +21014,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -21033,7 +21031,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21050,7 +21048,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21067,7 +21065,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21084,7 +21082,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21102,7 +21100,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21119,7 +21117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21136,7 +21134,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A05E5E5-A960-4822-BC89-72BBCFD24B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFFCA4-778D-49F6-A921-E22DB339200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,10 +1569,10 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Max coverage increase per annum</t>
+    <t>Max-increase per annum</t>
   </si>
   <si>
-    <t>Max coverage decrease per annum</t>
+    <t>Max-decrease per annum</t>
   </si>
 </sst>
 </file>
@@ -5601,8 +5601,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16632,6 +16632,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16641,42 +16677,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/inputs/demo_demo_input.xlsx
+++ b/inputs/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFFCA4-778D-49F6-A921-E22DB339200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F269A-48CF-4255-B7D4-64287AC66AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11685" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="340">
   <si>
     <t>year</t>
   </si>
@@ -1554,19 +1554,7 @@
     <t>Child death</t>
   </si>
   <si>
-    <t>PW death</t>
-  </si>
-  <si>
-    <t>Child anaemic</t>
-  </si>
-  <si>
-    <t>PW anaemic</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
   </si>
   <si>
     <t>Max-increase per annum</t>
@@ -1574,17 +1562,32 @@
   <si>
     <t>Max-decrease per annum</t>
   </si>
+  <si>
+    <t>Maternal death</t>
+  </si>
+  <si>
+    <t>Child wasting episode</t>
+  </si>
+  <si>
+    <t>Child turning age 5 stunted (over lifetime)</t>
+  </si>
+  <si>
+    <t>Anaemic child (per year)</t>
+  </si>
+  <si>
+    <t>Anaemic pregnant woman (per pregnancy)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1898,7 +1901,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2616,7 +2619,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2652,8 +2655,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2663,7 +2666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2673,16 +2676,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2715,7 +2718,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2730,7 +2733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2760,7 +2763,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2779,28 +2782,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2903,7 +2906,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2933,7 +2936,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5128,7 +5131,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -5601,8 +5604,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5638,10 @@
         <v>205</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,8 +6889,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7186,24 +7189,24 @@
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo</f>
-        <v>5.64</v>
+        <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo</f>
-        <v>5.43</v>
+        <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.91</v>
+        <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -7373,24 +7376,24 @@
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo</f>
-        <v>5.64</v>
+        <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo</f>
-        <v>5.43</v>
+        <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.91</v>
+        <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -35321,7 +35324,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -35761,7 +35764,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36523,29 +36526,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F68D70-249B-4BD4-B4FA-E42A04973833}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -36553,7 +36557,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -36569,7 +36573,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -36577,7 +36581,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -36585,7 +36589,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
